--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Equipment" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="External Funding" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Direct Costs</t>
   </si>
@@ -121,6 +122,9 @@
   <si>
     <t>*Please round numbers to the nearest thousand</t>
   </si>
+  <si>
+    <t>Potential / Existing Funder</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="[$$-1009]#,##0;[RED]\-[$$-1009]#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,6 +176,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -271,10 +282,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +316,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -496,7 +507,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -508,7 +519,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -524,13 +535,13 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -566,174 +577,195 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="8" t="n">
         <f aca="false">SUM(Equipment!B22)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="8" t="n">
         <f aca="false">SUM(Equipment!C22)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="8" t="n">
         <f aca="false">SUM(Equipment!D22)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="8" t="n">
         <f aca="false">SUM(Equipment!E22)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="8" t="n">
         <f aca="false">SUM(Equipment!F22)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="8" t="n">
         <f aca="false">SUM(Equipment!G22)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="8" t="n">
         <f aca="false">SUM(Equipment!H22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <f aca="false">SUM(B2,B8,B9,B12,B13,B14)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <f aca="false">SUM(C2,C8,C9,C12,C13,C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="10" t="n">
         <f aca="false">SUM(D2,D8,D9,D12,D13,D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="10" t="n">
         <f aca="false">SUM(E2,E8,E9,E12,E13,E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="10" t="n">
         <f aca="false">SUM(F2,F8,F9,F12,F13,F14)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="10" t="n">
         <f aca="false">SUM(G2,G8,G9,G12,G13,G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="10" t="n">
         <f aca="false">SUM(H2,H8,H9,H12,H13,H14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="8" t="n">
+        <f aca="false">'External Funding'!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <f aca="false">'External Funding'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <f aca="false">'External Funding'!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <f aca="false">'External Funding'!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <f aca="false">'External Funding'!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <f aca="false">'External Funding'!G22</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <f aca="false">'External Funding'!H22</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="10" t="n">
         <f aca="false">SUM(B15:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <f aca="false">SUM(C15:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="11" t="n">
+      <c r="D17" s="10" t="n">
         <f aca="false">SUM(D15:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="10" t="n">
         <f aca="false">SUM(E15:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="11" t="n">
+      <c r="F17" s="10" t="n">
         <f aca="false">SUM(F15:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="10" t="n">
         <f aca="false">SUM(G15:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="10" t="n">
         <f aca="false">SUM(H15:H16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -757,12 +789,12 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5612244897959"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -793,248 +825,549 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="15" t="n">
         <f aca="false">SUM(B2:B21)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="15" t="n">
         <f aca="false">SUM(C2:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="15" t="n">
         <f aca="false">SUM(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="15" t="n">
         <f aca="false">SUM(E2:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="15" t="n">
         <f aca="false">SUM(F2:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="15" t="n">
         <f aca="false">SUM(G2:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="15" t="n">
         <f aca="false">SUM(H2:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:H24"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="15" t="n">
+        <f aca="false">SUM(B2:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <f aca="false">SUM(C2:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <f aca="false">SUM(D2:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <f aca="false">SUM(E2:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <f aca="false">SUM(F2:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <f aca="false">SUM(G2:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="n">
+        <f aca="false">SUM(H2:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -274,9 +274,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -302,13 +302,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -483,7 +483,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -495,7 +495,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -531,7 +531,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -645,7 +645,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -691,34 +691,34 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="3" t="n">
         <f aca="false">'External Funding'!B22</f>
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="3" t="n">
         <f aca="false">'External Funding'!C22</f>
         <v>0</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="3" t="n">
         <f aca="false">'External Funding'!D22</f>
         <v>0</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="3" t="n">
         <f aca="false">'External Funding'!E22</f>
         <v>0</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="3" t="n">
         <f aca="false">'External Funding'!F22</f>
         <v>0</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="3" t="n">
         <f aca="false">'External Funding'!G22</f>
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="3" t="n">
         <f aca="false">'External Funding'!H22</f>
         <v>0</v>
       </c>
@@ -768,6 +768,7 @@
       <c r="H19" s="11"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="d7fb" objects="true" scenarios="true"/>
   <mergeCells count="1">
     <mergeCell ref="B19:H19"/>
   </mergeCells>
@@ -789,7 +790,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1090,7 +1091,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -723,36 +723,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">SUM(B15:B16)</f>
+        <f aca="false">B15-B16</f>
         <v>0</v>
       </c>
       <c r="C17" s="10" t="n">
-        <f aca="false">SUM(C15:C16)</f>
+        <f aca="false">C15-C16</f>
         <v>0</v>
       </c>
       <c r="D17" s="10" t="n">
-        <f aca="false">SUM(D15:D16)</f>
+        <f aca="false">D15-D16</f>
         <v>0</v>
       </c>
       <c r="E17" s="10" t="n">
-        <f aca="false">SUM(E15:E16)</f>
+        <f aca="false">E15-E16</f>
         <v>0</v>
       </c>
       <c r="F17" s="10" t="n">
-        <f aca="false">SUM(F15:F16)</f>
+        <f aca="false">F15-F16</f>
         <v>0</v>
       </c>
       <c r="G17" s="10" t="n">
-        <f aca="false">SUM(G15:G16)</f>
+        <f aca="false">G15-G16</f>
         <v>0</v>
       </c>
       <c r="H17" s="10" t="n">
-        <f aca="false">SUM(H15:H16)</f>
+        <f aca="false">H15-H16</f>
         <v>0</v>
       </c>
     </row>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="176" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="44" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Direct Costs</t>
   </si>
@@ -53,29 +53,44 @@
     <t>1. Compensation Related</t>
   </si>
   <si>
-    <t>  a. Summer</t>
-  </si>
-  <si>
-    <t>  b. Msc / MA</t>
-  </si>
-  <si>
-    <t>  c. PhD</t>
-  </si>
-  <si>
-    <t>  d. PDF/RA</t>
-  </si>
-  <si>
-    <t>  e. Academic</t>
-  </si>
-  <si>
-    <t>2. Travel and Subsistence</t>
-  </si>
-  <si>
-    <t>3. Equipment and Supplies</t>
+    <t>  1.1 Postdoctoral</t>
+  </si>
+  <si>
+    <t>  1.2 Doctorate</t>
+  </si>
+  <si>
+    <t>  1.3 Masters</t>
+  </si>
+  <si>
+    <t>  1.4 Bachelors</t>
+  </si>
+  <si>
+    <t>  1.5 Research Associates</t>
+  </si>
+  <si>
+    <t>  1.6 Research Technical Support (ie. Technicians)</t>
+  </si>
+  <si>
+    <t>  1.7 Research Admin. Support (Managers, Administrators, Research Assistants, Clerks, etc)</t>
+  </si>
+  <si>
+    <t>  1.8 Professional and Technical Services</t>
+  </si>
+  <si>
+    <t>  1.9 Other Misc. Compensation Expenses, incl. Honoraria</t>
+  </si>
+  <si>
+    <t>2. Recruitment and relocation</t>
+  </si>
+  <si>
+    <t>3. Travel, Subsistence</t>
+  </si>
+  <si>
+    <t>4. Equipment and Supplies</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3.1 Equipment </t>
+      <t xml:space="preserve">  4.1 Equipment </t>
     </r>
     <r>
       <rPr>
@@ -90,16 +105,19 @@
     </r>
   </si>
   <si>
-    <t>3.2 Supplies</t>
-  </si>
-  <si>
-    <t>4. Computers and Electronic Communications</t>
-  </si>
-  <si>
-    <t>5. Dissemination and Networking</t>
-  </si>
-  <si>
-    <t>6. Services</t>
+    <t>  4.2 Supplies</t>
+  </si>
+  <si>
+    <t>5. Sabbatical</t>
+  </si>
+  <si>
+    <t>6. Computers, Electronic Communications</t>
+  </si>
+  <si>
+    <t>7. Dissemination, Networking</t>
+  </si>
+  <si>
+    <t>8. Services and miscellaneous</t>
   </si>
   <si>
     <t>Total Expenditures</t>
@@ -399,20 +417,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6275510204082"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,35 +461,35 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="n">
-        <f aca="false">SUM(B3:B7)</f>
+        <f aca="false">SUM(B3:B11)</f>
         <v>0</v>
       </c>
       <c r="C2" s="3" t="n">
-        <f aca="false">SUM(C3:C7)</f>
+        <f aca="false">SUM(C3:C11)</f>
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <f aca="false">SUM(D3:D7)</f>
+        <f aca="false">SUM(D3:D11)</f>
         <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
-        <f aca="false">SUM(E3:E7)</f>
+        <f aca="false">SUM(E3:E11)</f>
         <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
-        <f aca="false">SUM(F3:F7)</f>
+        <f aca="false">SUM(F3:F11)</f>
         <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
-        <f aca="false">SUM(G3:G7)</f>
+        <f aca="false">SUM(G3:G11)</f>
         <v>0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <f aca="false">SUM(H3:H7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SUM(H3:H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -483,7 +501,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -532,7 +550,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5"/>
@@ -543,73 +561,31 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <f aca="false">SUM(B10:B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <f aca="false">SUM(C10:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <f aca="false">SUM(D10:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <f aca="false">SUM(E10:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <f aca="false">SUM(F10:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <f aca="false">SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <f aca="false">SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <f aca="false">SUM(Equipment!B22)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <f aca="false">SUM(Equipment!C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <f aca="false">SUM(Equipment!D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <f aca="false">SUM(Equipment!E22)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <f aca="false">SUM(Equipment!F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <f aca="false">SUM(Equipment!G22)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <f aca="false">SUM(Equipment!H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -621,7 +597,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -646,131 +622,245 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="3" t="n">
+        <f aca="false">SUM(B15:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <f aca="false">SUM(C15:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">SUM(D15:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">SUM(E15:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <f aca="false">SUM(F15:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">SUM(G15:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <f aca="false">SUM(H15:H16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <f aca="false">SUM(B2,B8,B9,B12,B13,B14)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <f aca="false">SUM(C2,C8,C9,C12,C13,C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <f aca="false">SUM(D2,D8,D9,D12,D13,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="10" t="n">
-        <f aca="false">SUM(E2,E8,E9,E12,E13,E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <f aca="false">SUM(F2,F8,F9,F12,F13,F14)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10" t="n">
-        <f aca="false">SUM(G2,G8,G9,G12,G13,G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <f aca="false">SUM(H2,H8,H9,H12,H13,H14)</f>
+      <c r="B15" s="8" t="n">
+        <f aca="false">SUM(Equipment!B22)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <f aca="false">SUM(Equipment!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <f aca="false">SUM(Equipment!D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <f aca="false">SUM(Equipment!E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <f aca="false">SUM(Equipment!F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="n">
+        <f aca="false">SUM(Equipment!G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <f aca="false">SUM(Equipment!H22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <f aca="false">SUM(B2,B13,B14,B17,B19,B20,B12,B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <f aca="false">SUM(C2,C13,C14,C17,C19,C20,C12,C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <f aca="false">SUM(D2,D13,D14,D17,D19,D20,D12,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <f aca="false">SUM(E2,E13,E14,E17,E19,E20,E12,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <f aca="false">SUM(F2,F13,F14,F17,F19,F20,F12,F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <f aca="false">SUM(G2,G13,G14,G17,G19,G20,G12,G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <f aca="false">SUM(H2,H13,H14,H17,H19,H20,H12,H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="n">
         <f aca="false">'External Funding'!B22</f>
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C22" s="3" t="n">
         <f aca="false">'External Funding'!C22</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D22" s="3" t="n">
         <f aca="false">'External Funding'!D22</f>
         <v>0</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E22" s="3" t="n">
         <f aca="false">'External Funding'!E22</f>
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F22" s="3" t="n">
         <f aca="false">'External Funding'!F22</f>
         <v>0</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G22" s="3" t="n">
         <f aca="false">'External Funding'!G22</f>
         <v>0</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H22" s="3" t="n">
         <f aca="false">'External Funding'!H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="10" t="n">
-        <f aca="false">B15-B16</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <f aca="false">C15-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="10" t="n">
-        <f aca="false">D15-D16</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <f aca="false">E15-E16</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <f aca="false">F15-F16</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="10" t="n">
-        <f aca="false">G15-G16</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <f aca="false">H15-H16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <f aca="false">B21-B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <f aca="false">C21-C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <f aca="false">D21-D22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <f aca="false">E21-E22</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <f aca="false">F21-F22</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <f aca="false">G21-G22</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <f aca="false">H21-H22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="d7fb" objects="true" scenarios="true"/>
   <mergeCells count="1">
-    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -789,7 +879,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +891,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1027,7 +1117,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15" t="n">
         <f aca="false">SUM(B2:B21)</f>
@@ -1060,7 +1150,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1090,7 +1180,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1192,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1328,7 +1418,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15" t="n">
         <f aca="false">SUM(B2:B21)</f>
@@ -1361,7 +1451,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="44" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="22" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Direct Costs</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>5. Sabbatical</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>6. Computers, Electronic Communications</t>
@@ -271,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,6 +308,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,17 +710,31 @@
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -725,7 +746,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -737,7 +758,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -748,41 +769,41 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10" t="n">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="11" t="n">
         <f aca="false">SUM(B2,B13,B14,B17,B19,B20,B12,B18)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="11" t="n">
         <f aca="false">SUM(C2,C13,C14,C17,C19,C20,C12,C18)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="11" t="n">
         <f aca="false">SUM(D2,D13,D14,D17,D19,D20,D12,D18)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E21" s="11" t="n">
         <f aca="false">SUM(E2,E13,E14,E17,E19,E20,E12,E18)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="11" t="n">
         <f aca="false">SUM(F2,F13,F14,F17,F19,F20,F12,F18)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="11" t="n">
         <f aca="false">SUM(G2,G13,G14,G17,G19,G20,G12,G18)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="10" t="n">
+      <c r="H21" s="11" t="n">
         <f aca="false">SUM(H2,H13,H14,H17,H19,H20,H12,H18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">'External Funding'!B22</f>
@@ -814,48 +835,48 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="10" t="n">
+      <c r="A23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="11" t="n">
         <f aca="false">B21-B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="11" t="n">
         <f aca="false">C21-C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="11" t="n">
         <f aca="false">D21-D22</f>
         <v>0</v>
       </c>
-      <c r="E23" s="10" t="n">
+      <c r="E23" s="11" t="n">
         <f aca="false">E21-E22</f>
         <v>0</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="11" t="n">
         <f aca="false">F21-F22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="11" t="n">
         <f aca="false">G21-G22</f>
         <v>0</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H23" s="11" t="n">
         <f aca="false">H21-H22</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="d7fb" objects="true" scenarios="true"/>
@@ -891,7 +912,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -916,248 +937,248 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="15" t="n">
+      <c r="A22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="16" t="n">
         <f aca="false">SUM(B2:B21)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="16" t="n">
         <f aca="false">SUM(C2:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">SUM(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="16" t="n">
         <f aca="false">SUM(E2:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="16" t="n">
         <f aca="false">SUM(F2:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="16" t="n">
         <f aca="false">SUM(G2:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">SUM(H2:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1191,8 +1212,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>34</v>
+      <c r="A1" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1217,248 +1238,248 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="15" t="n">
+      <c r="A22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="16" t="n">
         <f aca="false">SUM(B2:B21)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="16" t="n">
         <f aca="false">SUM(C2:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">SUM(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="16" t="n">
         <f aca="false">SUM(E2:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="16" t="n">
         <f aca="false">SUM(F2:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="n">
+      <c r="G22" s="16" t="n">
         <f aca="false">SUM(G2:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="16" t="n">
         <f aca="false">SUM(H2:H21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="22" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="11" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" state="visible" r:id="rId2"/>
@@ -426,13 +426,13 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.4897959183674"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -900,7 +900,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1201,7 +1201,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saleema/Desktop/CFREF Reporting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadam/Documents/Forum/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E0833A-4C2D-A74A-B7EF-1BF8B46FA8D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1540" windowWidth="28020" windowHeight="16160"/>
+    <workbookView xWindow="2320" yWindow="1540" windowWidth="28020" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" r:id="rId1"/>
@@ -17,9 +18,9 @@
     <sheet name="External Funding" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$H$24</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,18 +33,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -52,7 +53,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -65,17 +66,17 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -83,12 +84,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -98,7 +99,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -107,7 +108,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -120,13 +121,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Direct Costs</t>
-  </si>
-  <si>
-    <t>FY2
-Apr2017 – Mar2018</t>
   </si>
   <si>
     <t>FY3
@@ -156,9 +153,6 @@
     <t>1. Compensation Related</t>
   </si>
   <si>
-    <t>*Keep numbers in thousands of dollars.</t>
-  </si>
-  <si>
     <t>Request From Future Energy System</t>
   </si>
   <si>
@@ -241,15 +235,12 @@
   </si>
   <si>
     <t>Potential / Existing Funder - Other Federal Funding</t>
-  </si>
-  <si>
-    <t>For Expenditures, only included items to be paid by FES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-1009]#,##0;[Red]\-[$$-1009]#,##0"/>
   </numFmts>
@@ -288,25 +279,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -437,7 +428,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,13 +437,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -744,30 +738,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:I25"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="22" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="10"/>
+    <col min="3" max="3" width="10.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="22" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="40" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -789,20 +782,17 @@
       <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+    </row>
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="12">
-        <f>SUM(C3:C11)</f>
+        <f t="shared" ref="C2:H2" si="0">SUM(C3:C11)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12">
-        <f t="shared" ref="D2:I2" si="0">SUM(D3:D11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E2" s="12">
@@ -821,14 +811,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I2" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -836,11 +822,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -848,11 +833,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -860,11 +844,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -872,11 +855,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -884,11 +866,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -896,11 +877,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -908,11 +888,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -920,11 +899,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -932,11 +910,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -944,11 +921,10 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -956,18 +932,17 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="12">
-        <f>C15+C16</f>
+        <f t="shared" ref="C14:H14" si="1">C15+C16</f>
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" ref="D14:I14" si="1">D15+D16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="12">
@@ -986,14 +961,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8">
         <f>Equipment!B22</f>
@@ -1019,14 +990,10 @@
         <f>Equipment!G22</f>
         <v>0</v>
       </c>
-      <c r="I15" s="8">
-        <f>Equipment!H22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1034,37 +1001,33 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -1072,11 +1035,10 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1084,11 +1046,10 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1096,18 +1057,17 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="2:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:9" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="17">
-        <f>C2+C12+C13+C14+C18+C19+C20</f>
+        <f t="shared" ref="C21:H21" si="2">C2+C12+C13+C14+C18+C19+C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" ref="D21:I21" si="2">D2+D12+D13+D14+D18+D19+D20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" s="17">
@@ -1126,15 +1086,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="25">
         <f>'External Funding'!C11</f>
@@ -1160,15 +1116,11 @@
         <f>'External Funding'!H11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="25">
-        <f>'External Funding'!I11</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="25">
         <f>+'External Funding'!C25</f>
@@ -1194,22 +1146,18 @@
         <f>+'External Funding'!H25</f>
         <v>0</v>
       </c>
-      <c r="I23" s="25">
-        <f>+'External Funding'!I25</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="2:9" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="17">
-        <f>C21+C22+C23</f>
+        <f t="shared" ref="C24:H24" si="3">C21+C22+C23</f>
         <v>0</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" ref="D24:I24" si="3">D21+D22+D23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24" s="17">
@@ -1228,39 +1176,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="26" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="2">
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C25:H25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1270,11 +1208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1282,9 +1220,9 @@
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="52" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1304,11 +1242,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1316,9 +1251,8 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1326,9 +1260,8 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1336,9 +1269,8 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1346,9 +1278,8 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1356,9 +1287,8 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1366,9 +1296,8 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1376,9 +1305,8 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1386,9 +1314,8 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1396,9 +1323,8 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1406,9 +1332,8 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1416,9 +1341,8 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1426,9 +1350,8 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1436,9 +1359,8 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1446,9 +1368,8 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1456,7 +1377,6 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
@@ -1466,7 +1386,6 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
@@ -1476,7 +1395,6 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
@@ -1486,7 +1404,6 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
@@ -1496,7 +1413,6 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
@@ -1506,14 +1422,13 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" ref="B22:H22" si="0">SUM(B2:B21)</f>
+        <f t="shared" ref="B22:G22" si="0">SUM(B2:B21)</f>
         <v>0</v>
       </c>
       <c r="C22" s="7">
@@ -1536,25 +1451,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-    </row>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B23:H23"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1566,11 +1478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1582,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="52" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1601,9 +1513,6 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
@@ -1614,7 +1523,6 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4"/>
@@ -1624,7 +1532,6 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
@@ -1634,7 +1541,6 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4"/>
@@ -1644,7 +1550,6 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="4"/>
@@ -1654,7 +1559,6 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4"/>
@@ -1664,7 +1568,6 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
@@ -1674,7 +1577,6 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
@@ -1684,7 +1586,6 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
@@ -1694,14 +1595,13 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" ref="C11:I11" si="0">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:H11" si="0">SUM(C2:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="7">
@@ -1724,25 +1624,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="2:9" ht="52" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -1761,9 +1658,6 @@
       </c>
       <c r="H15" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -1774,7 +1668,6 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
@@ -1784,7 +1677,6 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
@@ -1794,7 +1686,6 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
@@ -1804,7 +1695,6 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
@@ -1814,7 +1704,6 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
@@ -1824,7 +1713,6 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
@@ -1834,7 +1722,6 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
@@ -1844,7 +1731,6 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
@@ -1854,14 +1740,13 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" ref="C25:I25" si="1">SUM(C16:C24)</f>
+        <f t="shared" ref="C25:H25" si="1">SUM(C16:C24)</f>
         <v>0</v>
       </c>
       <c r="D25" s="7">
@@ -1884,26 +1769,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C27" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C26:I26"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kadam/Documents/Forum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saleema/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34E0833A-4C2D-A74A-B7EF-1BF8B46FA8D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964FE8E1-90C0-AA4A-8865-4BEA28BB1E28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2320" yWindow="1540" windowWidth="28020" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Direct Costs</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>8. Services and miscellaneous</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t xml:space="preserve">   1.1 Postdoctoral</t>
@@ -745,7 +742,7 @@
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C24" sqref="C24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -760,7 +757,7 @@
     <col min="9" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="43" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -814,7 +811,7 @@
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -825,7 +822,7 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -836,7 +833,7 @@
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -847,7 +844,7 @@
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -858,7 +855,7 @@
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -869,7 +866,7 @@
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -880,7 +877,7 @@
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -891,7 +888,7 @@
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -902,7 +899,7 @@
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1006,23 +1003,23 @@
       <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>18</v>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1063,11 +1060,11 @@
         <v>8</v>
       </c>
       <c r="C21" s="17">
-        <f t="shared" ref="C21:H21" si="2">C2+C12+C13+C14+C18+C19+C20</f>
+        <f>C2+C12+C13+C14+C18+C19+C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D21:H21" si="2">D2+D12+D13+D14+D18+D19+D20</f>
         <v>0</v>
       </c>
       <c r="E21" s="17">
@@ -1090,7 +1087,7 @@
     </row>
     <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="25">
         <f>'External Funding'!C11</f>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="25">
         <f>+'External Funding'!C25</f>
@@ -1150,14 +1147,14 @@
     </row>
     <row r="24" spans="2:9" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17">
-        <f t="shared" ref="C24:H24" si="3">C21+C22+C23</f>
+        <f>C21+C22+C23</f>
         <v>0</v>
       </c>
       <c r="D24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D24:H24" si="3">D21+D22+D23</f>
         <v>0</v>
       </c>
       <c r="E24" s="17">
@@ -1220,9 +1217,9 @@
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="56" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1425,7 +1422,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="7">
         <f t="shared" ref="B22:G22" si="0">SUM(B2:B21)</f>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -1492,9 +1489,9 @@
     <col min="3" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="56" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" ref="C11:H11" si="0">SUM(C2:C10)</f>
@@ -1627,7 +1624,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C12" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -1637,9 +1634,9 @@
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="56" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
@@ -1743,7 +1740,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" ref="C25:H25" si="1">SUM(C16:C24)</f>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -261,13 +261,13 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -362,12 +362,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,15 +380,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,75 +400,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,7 +476,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -597,23 +589,23 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="n">
-        <f aca="false">SUM(#REF!)</f>
+        <f aca="false">SUM(C3:C11)</f>
         <v>0</v>
       </c>
       <c r="D2" s="5" t="n">
-        <f aca="false">SUM(#REF!)</f>
+        <f aca="false">SUM(D3:D11)</f>
         <v>0</v>
       </c>
       <c r="E2" s="5" t="n">
-        <f aca="false">SUM(#REF!)</f>
+        <f aca="false">SUM(E3:E11)</f>
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
-        <f aca="false">SUM(#REF!)</f>
+        <f aca="false">SUM(F3:F11)</f>
         <v>0</v>
       </c>
       <c r="G2" s="5" t="n">
-        <f aca="false">SUM(#REF!)</f>
+        <f aca="false">SUM(G3:G11)</f>
         <v>0</v>
       </c>
     </row>
@@ -862,60 +854,59 @@
         <f aca="false">G2+G12+G13+G14+G18+G19+G20</f>
         <v>0</v>
       </c>
-      <c r="H21" s="15"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="16" t="n">
         <f aca="false">'External Funding'!C11</f>
         <v>0</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">'External Funding'!D11</f>
         <v>0</v>
       </c>
-      <c r="E22" s="17" t="n">
+      <c r="E22" s="16" t="n">
         <f aca="false">'External Funding'!E11</f>
         <v>0</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="16" t="n">
         <f aca="false">'External Funding'!F11</f>
         <v>0</v>
       </c>
-      <c r="G22" s="17" t="n">
+      <c r="G22" s="16" t="n">
         <f aca="false">'External Funding'!G11</f>
         <v>0</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="16" t="n">
         <f aca="false">+'External Funding'!C25</f>
         <v>0</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="16" t="n">
         <f aca="false">+'External Funding'!D25</f>
         <v>0</v>
       </c>
-      <c r="E23" s="17" t="n">
+      <c r="E23" s="16" t="n">
         <f aca="false">+'External Funding'!E25</f>
         <v>0</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="16" t="n">
         <f aca="false">+'External Funding'!F25</f>
         <v>0</v>
       </c>
-      <c r="G23" s="17" t="n">
+      <c r="G23" s="16" t="n">
         <f aca="false">+'External Funding'!G25</f>
         <v>0</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" s="12" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="s">
@@ -941,7 +932,7 @@
         <f aca="false">G21+G22+G23</f>
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="17"/>
       <c r="AMJ24" s="0"/>
     </row>
   </sheetData>
@@ -969,225 +960,225 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="20" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="18" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="25" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">SUM(B2:B21)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="23" t="n">
         <f aca="false">SUM(C2:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="23" t="n">
         <f aca="false">SUM(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="23" t="n">
         <f aca="false">SUM(E2:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="23" t="n">
         <f aca="false">SUM(F2:F21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1217,268 +1208,268 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="23.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="20" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="23.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="18" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="23" t="n">
         <f aca="false">SUM(C2:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="23" t="n">
         <f aca="false">SUM(D2:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="23" t="n">
         <f aca="false">SUM(E2:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="23" t="n">
         <f aca="false">SUM(F2:F10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="23" t="n">
         <f aca="false">SUM(G2:G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="23" t="n">
         <f aca="false">SUM(C16:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="23" t="n">
         <f aca="false">SUM(D16:D24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="23" t="n">
         <f aca="false">SUM(E16:E24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="23" t="n">
         <f aca="false">SUM(F16:F24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="23" t="n">
         <f aca="false">SUM(G16:G24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ferraz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelferraz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E14D0AD-5649-FA42-ABF2-C3E4780BA47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF8271-486C-3D41-A23F-1BBC394B068A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$F$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -118,92 +112,92 @@
 Apr2022 – Mar2023</t>
   </si>
   <si>
+    <t>1. Compensation Related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1 Postdoctoral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.2 Doctorate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.3 Masters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.4 Bachelors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.5 Research Associates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.6 Research Technical Support (ie. Technicians)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.7 Research Admin. Support (Managers, Administrators, Research Assistants, Clerks, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.8 Professional and Technical Services</t>
+  </si>
+  <si>
+    <t>3. Travel, Subsistence</t>
+  </si>
+  <si>
+    <t>4. Equipment, Supplies</t>
+  </si>
+  <si>
+    <t>4.1 Equipment (See Equipment worksheet)</t>
+  </si>
+  <si>
+    <t>4.2 Supplies</t>
+  </si>
+  <si>
+    <t>6. Computers, Electronic Communications</t>
+  </si>
+  <si>
+    <t>7. Dissemination, Networking</t>
+  </si>
+  <si>
+    <t>Other Federal Funding</t>
+  </si>
+  <si>
+    <t>External Funding (not Federal)</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>*Please round numbers to the nearest thousand</t>
+  </si>
+  <si>
+    <t>Potential / Existing Funder - Other Federal Funding</t>
+  </si>
+  <si>
+    <t>Potential / Existing Funder - Other Non Federal Funding</t>
+  </si>
+  <si>
+    <t>Request From Future Energy Systems</t>
+  </si>
+  <si>
+    <t>5. Sabbatical</t>
+  </si>
+  <si>
+    <t>2. Recruitment and Relocation</t>
+  </si>
+  <si>
+    <t>8. Services and Miscellaneous</t>
+  </si>
+  <si>
+    <t>Total Funding for the Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.9 Other Compensation Expenses, incl. Honoraria and Research Participation fee</t>
+  </si>
+  <si>
     <t>FY8
-Apr2023 – Sep2023</t>
-  </si>
-  <si>
-    <t>1. Compensation Related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.1 Postdoctoral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.2 Doctorate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.3 Masters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.4 Bachelors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.5 Research Associates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.6 Research Technical Support (ie. Technicians)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.7 Research Admin. Support (Managers, Administrators, Research Assistants, Clerks, etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.8 Professional and Technical Services</t>
-  </si>
-  <si>
-    <t>3. Travel, Subsistence</t>
-  </si>
-  <si>
-    <t>4. Equipment, Supplies</t>
-  </si>
-  <si>
-    <t>4.1 Equipment (See Equipment worksheet)</t>
-  </si>
-  <si>
-    <t>4.2 Supplies</t>
-  </si>
-  <si>
-    <t>6. Computers, Electronic Communications</t>
-  </si>
-  <si>
-    <t>7. Dissemination, Networking</t>
-  </si>
-  <si>
-    <t>Other Federal Funding</t>
-  </si>
-  <si>
-    <t>External Funding (not Federal)</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>*Please round numbers to the nearest thousand</t>
-  </si>
-  <si>
-    <t>Potential / Existing Funder - Other Federal Funding</t>
-  </si>
-  <si>
-    <t>Potential / Existing Funder - Other Non Federal Funding</t>
-  </si>
-  <si>
-    <t>Request From Future Energy Systems</t>
-  </si>
-  <si>
-    <t>5. Sabbatical</t>
-  </si>
-  <si>
-    <t>2. Recruitment and Relocation</t>
-  </si>
-  <si>
-    <t>8. Services and Miscellaneous</t>
-  </si>
-  <si>
-    <t>Total Funding for the Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.9 Other Compensation Expenses, incl. Honoraria and Research Participation fee</t>
+Apr2023 – Mar2024</t>
   </si>
 </sst>
 </file>
@@ -918,9 +912,7 @@
   </sheetPr>
   <dimension ref="A1:AMI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="117" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -947,12 +939,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <f>SUM(C3:C11)</f>
@@ -973,7 +965,7 @@
     </row>
     <row r="3" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -982,7 +974,7 @@
     </row>
     <row r="4" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -991,7 +983,7 @@
     </row>
     <row r="5" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1000,7 +992,7 @@
     </row>
     <row r="6" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1009,7 +1001,7 @@
     </row>
     <row r="7" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1018,7 +1010,7 @@
     </row>
     <row r="8" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1027,7 +1019,7 @@
     </row>
     <row r="9" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1036,7 +1028,7 @@
     </row>
     <row r="10" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1045,7 +1037,7 @@
     </row>
     <row r="11" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1054,7 +1046,7 @@
     </row>
     <row r="12" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1063,7 +1055,7 @@
     </row>
     <row r="13" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1072,7 +1064,7 @@
     </row>
     <row r="14" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
         <f>C15+C16</f>
@@ -1093,7 +1085,7 @@
     </row>
     <row r="15" spans="2:1023" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="11">
         <f>Equipment!B22</f>
@@ -1115,7 +1107,7 @@
     </row>
     <row r="16" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1124,7 +1116,7 @@
     </row>
     <row r="17" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -1141,7 +1133,7 @@
     </row>
     <row r="18" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1150,7 +1142,7 @@
     </row>
     <row r="19" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1159,7 +1151,7 @@
     </row>
     <row r="20" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1168,7 +1160,7 @@
     </row>
     <row r="21" spans="2:1023" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="14">
         <f>C2+C12+C13+C14+C18+C19+C20</f>
@@ -1190,7 +1182,7 @@
     </row>
     <row r="22" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="16">
         <f>'External Funding'!C11</f>
@@ -1212,7 +1204,7 @@
     </row>
     <row r="23" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="16">
         <f>+'External Funding'!C25</f>
@@ -1234,7 +1226,7 @@
     </row>
     <row r="24" spans="2:1023" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="14">
         <f>C21+C22+C23</f>
@@ -1268,7 +1260,7 @@
   <dimension ref="A1:AMH24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -1291,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1436,7 +1428,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="23">
         <f>SUM(B2:B21)</f>
@@ -1457,7 +1449,7 @@
     </row>
     <row r="23" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -1481,7 +1473,7 @@
   <dimension ref="A1:AMH26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1494,7 +1486,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="57" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>1</v>
@@ -1506,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
@@ -1574,7 +1566,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="23">
         <f>SUM(C2:C10)</f>
@@ -1595,7 +1587,7 @@
     </row>
     <row r="12" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1606,7 +1598,7 @@
     <row r="13" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:8" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>1</v>
@@ -1618,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -1686,7 +1678,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="23">
         <f>SUM(C16:C24)</f>
@@ -1707,7 +1699,7 @@
     </row>
     <row r="26" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelferraz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF8271-486C-3D41-A23F-1BBC394B068A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9337486-B898-A440-9787-8E99422C7FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="External Funding" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -95,13 +95,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Direct Costs</t>
-  </si>
-  <si>
-    <t>FY5
-Apr2020 – Mar2021</t>
   </si>
   <si>
     <t>FY6
@@ -167,9 +163,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>*Please round numbers to the nearest thousand</t>
   </si>
   <si>
     <t>Potential / Existing Funder - Other Federal Funding</t>
@@ -463,7 +456,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -517,7 +510,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -566,7 +559,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -907,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMI24"/>
+  <dimension ref="A1:AMH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="117" workbookViewId="0"/>
   </sheetViews>
@@ -918,14 +911,14 @@
   <cols>
     <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
-    <col min="7" max="1022" width="8.83203125" style="1" customWidth="1"/>
-    <col min="1023" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
+    <col min="6" max="1021" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1022" max="1023" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:1023" ht="43" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:1022" ht="43" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -936,15 +929,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="5">
         <f>SUM(C3:C11)</f>
@@ -958,113 +948,98 @@
         <f>SUM(E3:E11)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="5">
-        <f>SUM(F3:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <f>C15+C16</f>
@@ -1078,14 +1053,10 @@
         <f>E15+E16</f>
         <v>0</v>
       </c>
-      <c r="F14" s="5">
-        <f>F15+F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:1023" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:1022" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11">
         <f>Equipment!B22</f>
@@ -1099,24 +1070,19 @@
         <f>Equipment!D22</f>
         <v>0</v>
       </c>
-      <c r="F15" s="11">
-        <f>Equipment!E22</f>
-        <v>0</v>
-      </c>
-      <c r="AMI15"/>
-    </row>
-    <row r="16" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMH15"/>
+    </row>
+    <row r="16" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -1127,40 +1093,34 @@
       <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:1023" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:1022" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="14">
         <f>C2+C12+C13+C14+C18+C19+C20</f>
@@ -1174,15 +1134,11 @@
         <f>E2+E12+E13+E14+E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F21" s="14">
-        <f>F2+F12+F13+F14+F18+F19+F20</f>
-        <v>0</v>
-      </c>
-      <c r="AMI21"/>
-    </row>
-    <row r="22" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AMH21"/>
+    </row>
+    <row r="22" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="16">
         <f>'External Funding'!C11</f>
@@ -1196,15 +1152,11 @@
         <f>'External Funding'!E11</f>
         <v>0</v>
       </c>
-      <c r="F22" s="16">
-        <f>'External Funding'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:1023" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:1022" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="16">
         <f>+'External Funding'!C25</f>
@@ -1218,15 +1170,11 @@
         <f>+'External Funding'!E25</f>
         <v>0</v>
       </c>
-      <c r="F23" s="16">
-        <f>+'External Funding'!F25</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:1023" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:1022" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="14">
         <f>C21+C22+C23</f>
@@ -1240,12 +1188,8 @@
         <f>E21+E22+E23</f>
         <v>0</v>
       </c>
-      <c r="F24" s="14">
-        <f>F21+F22+F23</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="AMI24"/>
+      <c r="F24" s="17"/>
+      <c r="AMH24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1257,21 +1201,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMH24"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AMG24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1022" width="8.83203125" style="18" customWidth="1"/>
-    <col min="1023" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1021" width="8.83203125" style="18" customWidth="1"/>
+    <col min="1022" max="1023" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -1280,155 +1223,132 @@
         <v>2</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="23">
         <f>SUM(B2:B21)</f>
@@ -1442,22 +1362,15 @@
         <f>SUM(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="23">
-        <f>SUM(E2:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1470,23 +1383,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMH26"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AMG26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="18" customWidth="1"/>
-    <col min="3" max="1022" width="8.83203125" style="18" customWidth="1"/>
-    <col min="1023" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="3" max="1021" width="8.83203125" style="18" customWidth="1"/>
+    <col min="1022" max="1023" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="57" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>1</v>
@@ -1495,78 +1407,66 @@
         <v>2</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="23">
         <f>SUM(C2:C10)</f>
@@ -1580,25 +1480,18 @@
         <f>SUM(E2:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23">
-        <f>SUM(F2:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="25" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="12" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:8" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:7" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>1</v>
@@ -1607,78 +1500,66 @@
         <v>2</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="23">
         <f>SUM(C16:C24)</f>
@@ -1692,20 +1573,13 @@
         <f>SUM(E16:E24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="23">
-        <f>SUM(F16:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="25" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="26" spans="2:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/FES_Project_Budget.xlsx
+++ b/data/FES_Project_Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferraz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samferraz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B715418-4887-AD47-A835-AA280C14B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B30A78-13A5-D144-BF12-219CB5345E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28320" windowHeight="17100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="External Funding" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$D$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Overall Budget'!$B$1:$B$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,17 +106,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Direct Costs</t>
-  </si>
-  <si>
-    <t>FY7
-Apr2022-Mar2023</t>
-  </si>
-  <si>
-    <t>FY8
-Apr2023-Mar2024</t>
   </si>
   <si>
     <t>FY9
@@ -243,6 +235,10 @@
       </rPr>
       <t xml:space="preserve"> (See 'External Funding' worksheet)</t>
     </r>
+  </si>
+  <si>
+    <t>FY11
+Apr2026-Jun2026</t>
   </si>
 </sst>
 </file>
@@ -364,11 +360,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -527,7 +520,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>367920</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
@@ -589,7 +582,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>63000</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
@@ -646,7 +639,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>63000</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
@@ -699,9 +692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -739,7 +732,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -845,7 +838,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -987,7 +980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -998,7 +991,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F24"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1006,324 +999,273 @@
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="1021" max="1022" width="9.1640625" customWidth="1"/>
+    <col min="1019" max="1020" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="43" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:5" ht="43" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C2" s="4">
+        <f>SUM(C3:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM(D3:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(E3:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <f>C15+C16</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f>D15+D16</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E15+E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9">
+        <f>Equipment!B22</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <f>Equipment!C22</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f>Equipment!D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12">
+        <f>C2+C12+C13+C14+C18+C19+C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <f>D2+D12+D13+D14+D18+D19+D20</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <f>E2+E12+E13+E14+E18+E19+E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <f>SUM(C3:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <f>SUM(D3:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <f>SUM(E3:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <f>SUM(F3:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <f>C15+C16</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <f>D15+D16</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f>E15+E16</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <f>F15+F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="C22" s="14">
+        <f>'External Funding'!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f>'External Funding'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <f>'External Funding'!E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="10">
-        <f>Equipment!B22</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <f>Equipment!C22</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <f>Equipment!D22</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <f>Equipment!E22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="C23" s="14">
+        <f>+'External Funding'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <f>+'External Funding'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <f>+'External Funding'!E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13">
-        <f>C2+C12+C13+C14+C18+C19+C20</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
-        <f>D2+D12+D13+D14+D18+D19+D20</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
-        <f>E2+E12+E13+E14+E18+E19+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <f>F2+F12+F13+F14+F18+F19+F20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15">
-        <f>'External Funding'!C11</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
-        <f>'External Funding'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
-        <f>'External Funding'!E11</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
-        <f>'External Funding'!F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="15">
-        <f>+'External Funding'!C25</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
-        <f>+'External Funding'!D25</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <f>+'External Funding'!E25</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="15">
-        <f>+'External Funding'!F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <f>C21+C22+C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <f>D21+D22+D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <f>E21+E22+E23</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <f>F21+F22+F23</f>
         <v>0</v>
       </c>
     </row>
@@ -1337,201 +1279,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMF24"/>
+  <dimension ref="A1:AMD24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1020" width="8.83203125" style="16"/>
-    <col min="1021" max="1022" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1018" width="8.83203125" style="15"/>
+    <col min="1019" max="1020" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="43" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <f>SUM(B2:B21)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <f>SUM(C2:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <f>SUM(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="21">
-        <f>SUM(E2:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1544,234 +1458,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMF26"/>
+  <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="16" customWidth="1"/>
-    <col min="3" max="1020" width="8.83203125" style="16"/>
-    <col min="1021" max="1022" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="15" customWidth="1"/>
+    <col min="3" max="1018" width="8.83203125" style="15"/>
+    <col min="1019" max="1020" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="43" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
-        <v>27</v>
+    <row r="1" spans="2:5" ht="43" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="20">
+        <f>SUM(C2:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="20">
+        <f>SUM(D2:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <f>SUM(E2:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:5" ht="43" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="21">
-        <f>SUM(C2:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <f>SUM(D2:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <f>SUM(E2:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <f>SUM(F2:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:6" ht="43" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="21">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20">
         <f>SUM(C16:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <f>SUM(D16:D24)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <f>SUM(E16:E24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="21">
-        <f>SUM(F16:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+    </row>
+    <row r="26" spans="2:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
